--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3984.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3984.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.276074201459951</v>
+        <v>1.315593004226685</v>
       </c>
       <c r="B1">
-        <v>2.73774852604474</v>
+        <v>1.452528476715088</v>
       </c>
       <c r="C1">
-        <v>5.136305105263109</v>
+        <v>4.493249416351318</v>
       </c>
       <c r="D1">
-        <v>3.151353336510569</v>
+        <v>5.08116340637207</v>
       </c>
       <c r="E1">
-        <v>1.325932723431432</v>
+        <v>1.517598748207092</v>
       </c>
     </row>
   </sheetData>
